--- a/dankal.xlsx
+++ b/dankal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>מחרוזת</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>lat</t>
+  </si>
+  <si>
+    <t>בן גוריון</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -563,6 +566,17 @@
         <v>34.812838350352301</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>32.0910077434879</v>
+      </c>
+      <c r="C16">
+        <v>34.823592069249898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
